--- a/hero_ids.xlsx
+++ b/hero_ids.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suz\Desktop\Speciale\Masters-Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susanne Truong\Desktop\Speciale\Masters-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9F46D4-1578-4B11-82F1-573D8C431FC0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A4697-C063-4B12-8AAC-52CBE58F63C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{50FF9724-A6B7-4D1B-89C1-B783945F3D05}"/>
   </bookViews>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC03FB4-F110-4546-990E-C3214FC2D75B}">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1120,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
